--- a/election_votar_data/LOHAGARA/AMIRABAD/152587/152587_com_901_male_without_photo_51_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152587/152587_com_901_male_without_photo_51_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="44" customWidth="1" min="4" max="4"/>
     <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="44.5" customWidth="1" min="6" max="6"/>
+    <col width="38.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -28287,7 +28287,7 @@
       </c>
       <c r="F663" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রী জন্ম তারিখ:০৭/০৪/১৯৮৫</t>
+          <t>মিস্ট্রী</t>
         </is>
       </c>
       <c r="G663" s="3" t="inlineStr">
@@ -29337,7 +29337,7 @@
       </c>
       <c r="F688" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:১০/০৫/১৯৫০</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G688" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/AMIRABAD/152587/152587_com_901_male_without_photo_51_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/AMIRABAD/152587/152587_com_901_male_without_photo_51_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="44" customWidth="1" min="4" max="4"/>
     <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="38.5" customWidth="1" min="6" max="6"/>
+    <col width="44.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -28287,7 +28287,7 @@
       </c>
       <c r="F663" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রী</t>
+          <t>মিস্ট্রী জন্ম তারিখ:০৭/০৪/১৯৮৫</t>
         </is>
       </c>
       <c r="G663" s="3" t="inlineStr">
@@ -29337,7 +29337,7 @@
       </c>
       <c r="F688" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:১০/০৫/১৯৫০</t>
         </is>
       </c>
       <c r="G688" s="3" t="inlineStr">
